--- a/Team-Data/2013-14/4-5-2013-14.xlsx
+++ b/Team-Data/2013-14/4-5-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -777,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>22</v>
@@ -810,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="n">
-        <v>0.299</v>
+        <v>0.303</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,25 +933,25 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L3" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M3" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P3" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
         <v>0.775</v>
@@ -893,7 +960,7 @@
         <v>12.1</v>
       </c>
       <c r="S3" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T3" t="n">
         <v>42.7</v>
@@ -902,13 +969,13 @@
         <v>20.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W3" t="n">
         <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
@@ -920,13 +987,13 @@
         <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC3" t="n">
         <v>-4.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
@@ -938,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
         <v>24</v>
@@ -950,7 +1017,7 @@
         <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
@@ -962,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -998,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
         <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>0.553</v>
+        <v>0.547</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L4" t="n">
         <v>8.6</v>
@@ -1060,7 +1127,7 @@
         <v>23.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
         <v>18.5</v>
@@ -1075,13 +1142,13 @@
         <v>8.699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
         <v>38.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
         <v>14.3</v>
@@ -1093,7 +1160,7 @@
         <v>3.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
         <v>21.9</v>
@@ -1108,7 +1175,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1120,16 +1187,16 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1138,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1153,16 +1220,16 @@
         <v>29</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>6</v>
@@ -1177,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -1212,55 +1279,55 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.506</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L5" t="n">
         <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N5" t="n">
         <v>0.352</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P5" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R5" t="n">
         <v>9.4</v>
       </c>
       <c r="S5" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T5" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
         <v>21.4</v>
@@ -1269,55 +1336,55 @@
         <v>12.3</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
         <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z5" t="n">
         <v>18.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>96.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" t="n">
         <v>18</v>
@@ -1335,13 +1402,13 @@
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1359,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.584</v>
+        <v>0.579</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1415,13 +1482,13 @@
         <v>80.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L6" t="n">
         <v>6.1</v>
       </c>
       <c r="M6" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="N6" t="n">
         <v>0.347</v>
@@ -1457,25 +1524,25 @@
         <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z6" t="n">
         <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
@@ -1484,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1499,7 +1566,7 @@
         <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN6" t="n">
         <v>25</v>
@@ -1508,10 +1575,10 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>10</v>
@@ -1526,19 +1593,19 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
         <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J7" t="n">
-        <v>84.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
@@ -1606,7 +1673,7 @@
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O7" t="n">
         <v>17.1</v>
@@ -1615,16 +1682,16 @@
         <v>22.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R7" t="n">
         <v>12</v>
       </c>
       <c r="S7" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U7" t="n">
         <v>20.8</v>
@@ -1633,7 +1700,7 @@
         <v>14.3</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
         <v>3.7</v>
@@ -1666,13 +1733,13 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
@@ -1699,16 +1766,16 @@
         <v>7</v>
       </c>
       <c r="AS7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT7" t="n">
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>25</v>
@@ -1723,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2063,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
         <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.364</v>
+        <v>0.355</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,28 +2207,28 @@
         <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="K10" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M10" t="n">
         <v>19.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.32</v>
+        <v>0.319</v>
       </c>
       <c r="O10" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.671</v>
+        <v>0.668</v>
       </c>
       <c r="R10" t="n">
         <v>14.4</v>
@@ -2176,31 +2243,31 @@
         <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
       </c>
       <c r="X10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>4.9</v>
       </c>
-      <c r="Y10" t="n">
-        <v>4.8</v>
-      </c>
       <c r="Z10" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,16 +2279,16 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2251,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV10" t="n">
         <v>12</v>
@@ -2260,19 +2327,19 @@
         <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2403,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2433,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2615,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2636,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
@@ -2758,7 +2825,7 @@
         <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
@@ -2767,7 +2834,7 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>24</v>
@@ -2800,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2967,13 +3034,13 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT14" t="n">
         <v>15</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3143,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3155,7 +3222,7 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
         <v>23</v>
@@ -3173,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>10</v>
@@ -3310,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" t="n">
-        <v>0.182</v>
+        <v>0.184</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,43 +3663,43 @@
         <v>35.8</v>
       </c>
       <c r="J18" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
         <v>6.8</v>
       </c>
       <c r="M18" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O18" t="n">
         <v>16.5</v>
       </c>
       <c r="P18" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T18" t="n">
         <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W18" t="n">
         <v>6.7</v>
@@ -3647,16 +3714,16 @@
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>95</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,22 +3738,22 @@
         <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3707,7 +3774,7 @@
         <v>24</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>18</v>
@@ -3716,7 +3783,7 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>38</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3778,19 +3845,19 @@
         <v>38.9</v>
       </c>
       <c r="J19" t="n">
-        <v>87.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L19" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O19" t="n">
         <v>21.5</v>
@@ -3799,16 +3866,16 @@
         <v>27.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S19" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T19" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U19" t="n">
         <v>23.9</v>
@@ -3817,7 +3884,7 @@
         <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
         <v>3.5</v>
@@ -3826,40 +3893,40 @@
         <v>5.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA19" t="n">
         <v>23.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.7</v>
+        <v>106.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE19" t="n">
         <v>16</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
         <v>17</v>
@@ -3877,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
@@ -4214,13 +4281,13 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
         <v>14</v>
@@ -4271,7 +4338,7 @@
         <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4435,7 +4502,7 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
         <v>55</v>
       </c>
       <c r="G23" t="n">
-        <v>0.286</v>
+        <v>0.276</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4509,46 +4576,46 @@
         <v>83.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="P23" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
         <v>42.4</v>
       </c>
       <c r="U23" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>5.6</v>
@@ -4557,16 +4624,16 @@
         <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4581,7 +4648,7 @@
         <v>2</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -4596,10 +4663,10 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP23" t="n">
         <v>27</v>
@@ -4614,25 +4681,25 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY23" t="n">
         <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="n">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>0.221</v>
+        <v>0.224</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
@@ -4688,28 +4755,28 @@
         <v>37.7</v>
       </c>
       <c r="J24" t="n">
-        <v>87.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="K24" t="n">
         <v>0.431</v>
       </c>
       <c r="L24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
         <v>22.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="O24" t="n">
         <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="R24" t="n">
         <v>11.8</v>
@@ -4724,7 +4791,7 @@
         <v>21.9</v>
       </c>
       <c r="V24" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="W24" t="n">
         <v>9.300000000000001</v>
@@ -4742,13 +4809,13 @@
         <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC24" t="n">
         <v>-10.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -4799,7 +4866,7 @@
         <v>14</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4817,7 +4884,7 @@
         <v>25</v>
       </c>
       <c r="BA24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB24" t="n">
         <v>19</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4966,7 +5033,7 @@
         <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5184,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -5294,31 +5361,31 @@
         <v>-2.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM27" t="n">
         <v>26</v>
@@ -5339,7 +5406,7 @@
         <v>4</v>
       </c>
       <c r="AS27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5536,7 +5603,7 @@
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.584</v>
+        <v>0.579</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
@@ -5604,13 +5671,13 @@
         <v>0.444</v>
       </c>
       <c r="L29" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M29" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="N29" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O29" t="n">
         <v>19.4</v>
@@ -5628,13 +5695,13 @@
         <v>31.2</v>
       </c>
       <c r="T29" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U29" t="n">
         <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W29" t="n">
         <v>7.1</v>
@@ -5658,10 +5725,10 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5679,10 +5746,10 @@
         <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>11</v>
@@ -5694,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ29" t="n">
         <v>6</v>
@@ -5730,10 +5797,10 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5861,16 +5928,16 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
         <v>22</v>
       </c>
       <c r="AM30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>0.519</v>
+        <v>0.526</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
@@ -5965,31 +6032,31 @@
         <v>84.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L31" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M31" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S31" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T31" t="n">
         <v>42.3</v>
@@ -6013,16 +6080,16 @@
         <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6037,16 +6104,16 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6058,10 +6125,10 @@
         <v>28</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
         <v>17</v>
@@ -6073,16 +6140,16 @@
         <v>20</v>
       </c>
       <c r="AU31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6091,10 +6158,10 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-5-2013-14</t>
+          <t>2014-04-05</t>
         </is>
       </c>
     </row>
